--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1818,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1911,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2499,10 +2511,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2546,28 +2558,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2592,28 +2604,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2730,10 +2742,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2777,28 +2789,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2823,28 +2835,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2961,10 +2973,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3008,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3054,28 +3066,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3192,10 +3204,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3239,28 +3251,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3285,28 +3297,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3493,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3528,28 +3540,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3586,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3741,10 +3753,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3788,28 +3800,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3834,28 +3846,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3972,10 +3984,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4019,28 +4031,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4065,28 +4077,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4203,10 +4215,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4250,28 +4262,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4296,28 +4308,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4405,10 +4417,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4452,28 +4464,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4498,28 +4510,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4578,10 +4590,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4625,28 +4637,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4671,28 +4683,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4780,10 +4792,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4827,28 +4839,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4873,28 +4885,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4982,10 +4994,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5029,28 +5041,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5075,28 +5087,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5184,10 +5196,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5231,28 +5243,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5277,28 +5289,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5386,10 +5398,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5433,28 +5445,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5479,28 +5491,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5646,10 +5658,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5693,28 +5705,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5739,28 +5751,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5877,10 +5889,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5924,28 +5936,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5970,28 +5982,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6050,10 +6062,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6097,28 +6109,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6143,28 +6155,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6252,10 +6264,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6299,28 +6311,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6345,28 +6357,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6425,10 +6437,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6472,28 +6484,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6518,28 +6530,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6598,10 +6610,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6645,28 +6657,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6691,28 +6703,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6800,10 +6812,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6847,28 +6859,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6893,28 +6905,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6973,10 +6985,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7020,28 +7032,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7066,28 +7078,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7146,10 +7158,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7193,28 +7205,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7239,28 +7251,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7348,10 +7360,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7395,28 +7407,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7441,28 +7453,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7521,10 +7533,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7568,28 +7580,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7614,28 +7626,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7694,10 +7706,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7741,28 +7753,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7787,28 +7799,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7867,10 +7879,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7914,28 +7926,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7960,28 +7972,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8040,10 +8052,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8087,28 +8099,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8133,28 +8145,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8213,10 +8225,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8260,28 +8272,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8306,28 +8318,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8386,10 +8398,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8433,28 +8445,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8479,28 +8491,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8559,10 +8571,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8606,28 +8618,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8652,28 +8664,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8732,10 +8744,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8779,28 +8791,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8825,28 +8837,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8905,10 +8917,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8952,28 +8964,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8998,28 +9010,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9107,10 +9119,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
